--- a/data/c_rcv.xlsx
+++ b/data/c_rcv.xlsx
@@ -14,18 +14,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Algorithm</t>
   </si>
   <si>
-    <t>State Based</t>
-  </si>
-  <si>
-    <t>Non State</t>
-  </si>
-  <si>
-    <t>One Sided</t>
+    <t>State Based mean</t>
+  </si>
+  <si>
+    <t>State Based std</t>
+  </si>
+  <si>
+    <t>Non State mean</t>
+  </si>
+  <si>
+    <t>Non State std</t>
+  </si>
+  <si>
+    <t>One Sided mean</t>
+  </si>
+  <si>
+    <t>One Sided std</t>
   </si>
   <si>
     <t>LR</t>
@@ -37,16 +46,13 @@
     <t>KNN</t>
   </si>
   <si>
-    <t>CART</t>
+    <t>DTREE</t>
   </si>
   <si>
     <t>RTREE</t>
   </si>
   <si>
     <t>XTREE</t>
-  </si>
-  <si>
-    <t>NB</t>
   </si>
   <si>
     <t>SVM</t>
@@ -407,13 +413,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -426,141 +432,196 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C2">
-        <v>0.863559488692232</v>
+        <v>0.8899968394437421</v>
       </c>
       <c r="D2">
-        <v>0.8650322580645161</v>
+        <v>0.02932686691486038</v>
       </c>
       <c r="E2">
-        <v>0.8580365296803653</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>0.8872247823860725</v>
+      </c>
+      <c r="F2">
+        <v>0.0415375440581336</v>
+      </c>
+      <c r="G2">
+        <v>0.872393661384487</v>
+      </c>
+      <c r="H2">
+        <v>0.02753491285383908</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C3">
-        <v>0.8432251720747296</v>
+        <v>0.8980009481668774</v>
       </c>
       <c r="D3">
-        <v>0.856941935483871</v>
+        <v>0.02737957730481438</v>
       </c>
       <c r="E3">
-        <v>0.8434661685346617</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>0.9097542242703532</v>
+      </c>
+      <c r="F3">
+        <v>0.04101015707032866</v>
+      </c>
+      <c r="G3">
+        <v>0.8732860717264387</v>
+      </c>
+      <c r="H3">
+        <v>0.01931091938779279</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C4">
-        <v>0.8812861356932153</v>
+        <v>0.8971001896333755</v>
       </c>
       <c r="D4">
-        <v>0.8826580645161289</v>
+        <v>0.02404090912375388</v>
       </c>
       <c r="E4">
-        <v>0.8562308011623081</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>0.8711469534050179</v>
+      </c>
+      <c r="F4">
+        <v>0.0395846454498924</v>
+      </c>
+      <c r="G4">
+        <v>0.8778231859883237</v>
+      </c>
+      <c r="H4">
+        <v>0.02689385058272304</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C5">
-        <v>0.7953235004916421</v>
+        <v>0.7719974715549937</v>
       </c>
       <c r="D5">
-        <v>0.7090838709677419</v>
+        <v>0.04768372662983804</v>
       </c>
       <c r="E5">
-        <v>0.7533789954337899</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>0.7149257552483359</v>
+      </c>
+      <c r="F5">
+        <v>0.04533995245944576</v>
+      </c>
+      <c r="G5">
+        <v>0.7411259382819017</v>
+      </c>
+      <c r="H5">
+        <v>0.03063760797831392</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C6">
-        <v>0.8910285152409048</v>
+        <v>0.8980009481668775</v>
       </c>
       <c r="D6">
-        <v>0.887483870967742</v>
+        <v>0.02465994652500151</v>
       </c>
       <c r="E6">
-        <v>0.8908053134080532</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>0.9033282130056325</v>
+      </c>
+      <c r="F6">
+        <v>0.04024430996029222</v>
+      </c>
+      <c r="G6">
+        <v>0.885137614678899</v>
+      </c>
+      <c r="H6">
+        <v>0.02275842567276379</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C7">
-        <v>0.8910127826941986</v>
+        <v>0.8554045512010113</v>
       </c>
       <c r="D7">
-        <v>0.9051870967741935</v>
+        <v>0.03702121522205542</v>
       </c>
       <c r="E7">
-        <v>0.8753424657534247</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>0.8453149001536098</v>
+      </c>
+      <c r="F7">
+        <v>0.04973757290997981</v>
+      </c>
+      <c r="G7">
+        <v>0.8468557130942452</v>
+      </c>
+      <c r="H7">
+        <v>0.02608791639630922</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C8">
-        <v>0.8821710914454277</v>
+        <v>0.8873498735777497</v>
       </c>
       <c r="D8">
-        <v>0.8746451612903225</v>
+        <v>0.02869691208115329</v>
       </c>
       <c r="E8">
-        <v>0.8798588625985886</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9">
-        <v>0.8733018682399214</v>
-      </c>
-      <c r="D9">
-        <v>0.8633935483870967</v>
-      </c>
-      <c r="E9">
-        <v>0.8625985886259858</v>
+        <v>0.8646953405017921</v>
+      </c>
+      <c r="F8">
+        <v>0.03974496683500261</v>
+      </c>
+      <c r="G8">
+        <v>0.876930775646372</v>
+      </c>
+      <c r="H8">
+        <v>0.02204768435220961</v>
       </c>
     </row>
   </sheetData>
